--- a/data_excel/users.xlsx
+++ b/data_excel/users.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="CompanyData"/>
+    <sheet r:id="rId1" sheetId="1" name="Visits"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -28,25 +28,13 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Jamal Zurba</t>
-  </si>
-  <si>
-    <t>Diea Mari</t>
-  </si>
-  <si>
-    <t>طالب ابو الحشيش</t>
-  </si>
-  <si>
-    <t>يوسف خطاطبة</t>
-  </si>
-  <si>
-    <t>عبيدة نوفل</t>
-  </si>
-  <si>
-    <t>صفوان دويكات</t>
-  </si>
-  <si>
-    <t>محمد البسلط</t>
+    <t>ابراهيم مرعي</t>
+  </si>
+  <si>
+    <t>ضياء مرعي</t>
+  </si>
+  <si>
+    <t>فادي مقبول</t>
   </si>
 </sst>
 </file>
@@ -64,7 +52,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -96,13 +84,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -412,18 +403,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -445,81 +436,26 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
